--- a/idealGoal.xlsx
+++ b/idealGoal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enma Yuki\Documents\Assignment\SoftwareA2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enma Yuki\Documents\Assignment\SoftwareA2\SoftwareEngineeringProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42276DC-275B-451B-A21B-C0ACA61E5988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE645F6-F6C6-4F23-B943-FE3775EDC1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="2310" windowWidth="21600" windowHeight="11385" xr2:uid="{C9D6A6F6-FD6A-4754-BE3A-938C8CEA125B}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{C9D6A6F6-FD6A-4754-BE3A-938C8CEA125B}"/>
   </bookViews>
   <sheets>
     <sheet name="teacher" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
   <si>
     <t>arrived time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -585,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0C8835-86CF-4489-A679-14D528912941}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
+    <sheetView zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -619,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00999D2A-52BE-4836-826F-E72A1A82E81B}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:B34"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -634,8 +634,8 @@
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1">
-        <v>44818</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/idealGoal.xlsx
+++ b/idealGoal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enma Yuki\Documents\Assignment\SoftwareA2\SoftwareEngineeringProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE645F6-F6C6-4F23-B943-FE3775EDC1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F51249-40B7-4324-9152-F3F921428B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{C9D6A6F6-FD6A-4754-BE3A-938C8CEA125B}"/>
+    <workbookView xWindow="6645" yWindow="2790" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{C9D6A6F6-FD6A-4754-BE3A-938C8CEA125B}"/>
   </bookViews>
   <sheets>
     <sheet name="teacher" sheetId="2" r:id="rId1"/>
